--- a/OperadoraNominas/bin/Debug/Archivos/caratula.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/caratula.xlsx
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OperadoraNominas/bin/Debug/Archivos/caratula.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/caratula.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="CARATULA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -498,42 +495,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="NOMINA"/>
-      <sheetName val="DETALLE"/>
-      <sheetName val="FACT"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="PENSION ALIMENTICIA"/>
-      <sheetName val="CARATULA"/>
-      <sheetName val="Hoja3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="H4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1299,7 @@
       <c r="B40" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="30">
-        <f>[1]FACT!H4</f>
-        <v>0</v>
-      </c>
+      <c r="C40" s="30"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
     </row>
@@ -1349,10 +1307,7 @@
       <c r="B41" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="30">
-        <f>+[1]FACT!H5</f>
-        <v>0</v>
-      </c>
+      <c r="C41" s="30"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
     </row>
